--- a/data/no2_test_data.xlsx
+++ b/data/no2_test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vcantarella/Documents/FuhrbergerColumns/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D73B1C7C-02E6-5847-9AD9-244161695C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C636861-47B8-DA47-8A15-D058EF7FF667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1240" windowWidth="27640" windowHeight="16180" xr2:uid="{25E31AD3-6768-B043-A87C-31A7E3F97888}"/>
+    <workbookView xWindow="2740" yWindow="1220" windowWidth="27640" windowHeight="16180" xr2:uid="{25E31AD3-6768-B043-A87C-31A7E3F97888}"/>
   </bookViews>
   <sheets>
     <sheet name="standard_curve_no2-test" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>name</t>
   </si>
@@ -103,16 +103,95 @@
   </si>
   <si>
     <t>dil</t>
+  </si>
+  <si>
+    <t>P1T0</t>
+  </si>
+  <si>
+    <t>P1T3</t>
+  </si>
+  <si>
+    <t>P1T8</t>
+  </si>
+  <si>
+    <t>P1T15</t>
+  </si>
+  <si>
+    <t>P1T23</t>
+  </si>
+  <si>
+    <t>P1T27</t>
+  </si>
+  <si>
+    <t>P2T0</t>
+  </si>
+  <si>
+    <t>P2T3</t>
+  </si>
+  <si>
+    <t>P2T8</t>
+  </si>
+  <si>
+    <t>P2T15</t>
+  </si>
+  <si>
+    <t>P2T23</t>
+  </si>
+  <si>
+    <t>P2T26</t>
+  </si>
+  <si>
+    <t>P3T0</t>
+  </si>
+  <si>
+    <t>P3T3</t>
+  </si>
+  <si>
+    <t>P3T8</t>
+  </si>
+  <si>
+    <t>P3T15</t>
+  </si>
+  <si>
+    <t>P3T23</t>
+  </si>
+  <si>
+    <t>P3T27</t>
+  </si>
+  <si>
+    <t>P4T0</t>
+  </si>
+  <si>
+    <t>P4T3</t>
+  </si>
+  <si>
+    <t>P4T8</t>
+  </si>
+  <si>
+    <t>P4T15</t>
+  </si>
+  <si>
+    <t>P4T23</t>
+  </si>
+  <si>
+    <t>P4T27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,8 +217,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1188,43 +1268,7 @@
       <sheetName val="Sheet2"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="L2">
-            <v>0.82799999999999996</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="L3">
-            <v>0.66533333333333333</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="L4">
-            <v>0.51233333333333331</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>0.36033333333333334</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>0.20066666666666666</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="L7">
-            <v>0.11033333333333334</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="L8">
-            <v>7.1500000000000008E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="H2">
@@ -1593,10 +1637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FD3808-B155-C745-BB16-E92AA8B45C3F}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1651,7 +1695,7 @@
         <v>0.314</v>
       </c>
       <c r="F2">
-        <f>64.069*AVERAGE(D2:D2)-2.8707</f>
+        <f t="shared" ref="F2:F12" si="0">64.069*AVERAGE(D2:D2)-2.8707</f>
         <v>17.246966</v>
       </c>
       <c r="G2">
@@ -1664,7 +1708,7 @@
         <v>0.90200000000000002</v>
       </c>
       <c r="J2">
-        <f>SUM(H2:I2)/3</f>
+        <f t="shared" ref="J2:J8" si="1">SUM(H2:I2)/3</f>
         <v>0.59166666666666667</v>
       </c>
     </row>
@@ -1676,14 +1720,14 @@
         <v>10</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C17" si="0">_xlfn.CONCAT("F",B3,"-",A3)</f>
+        <f t="shared" ref="C3:C13" si="2">_xlfn.CONCAT("F",B3,"-",A3)</f>
         <v>Fcontrol-12.09</v>
       </c>
       <c r="D3">
         <v>0.22700000000000001</v>
       </c>
       <c r="F3">
-        <f>64.069*AVERAGE(D3:D3)-2.8707</f>
+        <f t="shared" si="0"/>
         <v>11.672963000000001</v>
       </c>
       <c r="G3">
@@ -1696,7 +1740,7 @@
         <v>0.74</v>
       </c>
       <c r="J3">
-        <f>SUM(H3:I3)/3</f>
+        <f t="shared" si="1"/>
         <v>0.48500000000000004</v>
       </c>
     </row>
@@ -1708,14 +1752,14 @@
         <v>11</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>F19-20B-12.09</v>
       </c>
       <c r="D4">
         <v>0.20499999999999999</v>
       </c>
       <c r="F4">
-        <f>64.069*AVERAGE(D4:D4)-2.8707</f>
+        <f t="shared" si="0"/>
         <v>10.263445000000001</v>
       </c>
       <c r="G4">
@@ -1728,7 +1772,7 @@
         <v>0.47399999999999998</v>
       </c>
       <c r="J4">
-        <f>SUM(H4:I4)/3</f>
+        <f t="shared" si="1"/>
         <v>0.34966666666666663</v>
       </c>
     </row>
@@ -1740,14 +1784,14 @@
         <v>12</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>F13-14A-12.09</v>
       </c>
       <c r="D5">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="F5">
-        <f>64.069*AVERAGE(D5:D5)-2.8707</f>
+        <f t="shared" si="0"/>
         <v>0.90937100000000015</v>
       </c>
       <c r="G5">
@@ -1760,7 +1804,7 @@
         <v>0.41299999999999998</v>
       </c>
       <c r="J5">
-        <f>SUM(H5:I5)/3</f>
+        <f t="shared" si="1"/>
         <v>0.27066666666666667</v>
       </c>
     </row>
@@ -1772,14 +1816,14 @@
         <v>13</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>F13-14B-12.09</v>
       </c>
       <c r="D6">
         <v>0.17199999999999999</v>
       </c>
       <c r="F6">
-        <f>64.069*AVERAGE(D6:D6)-2.8707</f>
+        <f t="shared" si="0"/>
         <v>8.1491679999999995</v>
       </c>
       <c r="G6">
@@ -1792,7 +1836,7 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="J6">
-        <f>SUM(H6:I6)/3</f>
+        <f t="shared" si="1"/>
         <v>0.15166666666666667</v>
       </c>
     </row>
@@ -1804,14 +1848,14 @@
         <v>14</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>F17-18B-12.09</v>
       </c>
       <c r="D7">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="F7">
-        <f>64.069*AVERAGE(D7:D7)-2.8707</f>
+        <f t="shared" si="0"/>
         <v>1.5500610000000008</v>
       </c>
       <c r="G7">
@@ -1824,7 +1868,7 @@
         <v>0.13</v>
       </c>
       <c r="J7">
-        <f>SUM(H7:I7)/3</f>
+        <f t="shared" si="1"/>
         <v>8.6000000000000007E-2</v>
       </c>
     </row>
@@ -1836,14 +1880,14 @@
         <v>15</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>F16-17B-12.09</v>
       </c>
       <c r="D8">
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="F8">
-        <f>64.069*AVERAGE(D8:D8)-2.8707</f>
+        <f t="shared" si="0"/>
         <v>3.4721310000000005</v>
       </c>
       <c r="G8">
@@ -1856,7 +1900,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="J8">
-        <f>SUM(H8:I8)/3</f>
+        <f t="shared" si="1"/>
         <v>4.6000000000000006E-2</v>
       </c>
     </row>
@@ -1868,14 +1912,14 @@
         <v>16</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>F17-18A-12.09</v>
       </c>
       <c r="D9">
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="F9">
-        <f>64.069*AVERAGE(D9:D9)-2.8707</f>
+        <f t="shared" si="0"/>
         <v>2.7033030000000005</v>
       </c>
       <c r="G9">
@@ -1900,14 +1944,14 @@
         <v>17</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>F18-19-12.09</v>
       </c>
       <c r="D10">
         <v>0.09</v>
       </c>
       <c r="F10">
-        <f>64.069*AVERAGE(D10:D10)-2.8707</f>
+        <f t="shared" si="0"/>
         <v>2.8955100000000003</v>
       </c>
     </row>
@@ -1919,14 +1963,14 @@
         <v>18</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>F19-20A-12.09</v>
       </c>
       <c r="D11">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="F11">
-        <f>64.069*AVERAGE(D11:D11)-2.8707</f>
+        <f t="shared" si="0"/>
         <v>0.84530200000000066</v>
       </c>
     </row>
@@ -1938,14 +1982,14 @@
         <v>19</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>F16-17A-12.09</v>
       </c>
       <c r="D12">
         <v>0.16700000000000001</v>
       </c>
       <c r="F12">
-        <f>64.069*AVERAGE(D12:D12)-2.8707</f>
+        <f t="shared" si="0"/>
         <v>7.8288230000000016</v>
       </c>
     </row>
@@ -1957,7 +2001,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>FP1-14.09</v>
       </c>
       <c r="D13">
@@ -1967,8 +2011,368 @@
         <v>4</v>
       </c>
       <c r="F13">
-        <f>(64.069*AVERAGE(D13:D13)-2.8707)*4</f>
+        <f>(64.069*AVERAGE(D13:D13)-2.8707)*E13</f>
         <v>153.04639200000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>0.126</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:F37" si="3">(64.069*AVERAGE(D14:D14)-2.8707)*E14</f>
+        <v>20.807976000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>39.259848000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>0.19</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>37.209640000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>34.390604000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>39.003572000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>0.183</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>35.415708000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>-2.5131399999999982</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>985.62932000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>817.76854000000014</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>0.51</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>298.04489999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>216.03658000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>0.31</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>169.90690000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>-0.71920799999999829</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>812.64302000000021</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>0.629</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>748.57402000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>488.32983000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30">
+        <v>0.626</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>372.36493999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>328.79802000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>0.65309500000000043</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>-0.56421600000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>-0.62828499999999954</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>-0.50014699999999968</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>-0.43607799999999974</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>-0.69235399999999947</v>
       </c>
     </row>
   </sheetData>
